--- a/car inventory.xlsx
+++ b/car inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Excel Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Excel_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6159EBAA-3146-4B06-B63D-B11B0D685299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC995F-5595-4C29-A7BB-27491A92739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{417C224C-B167-4695-A434-81FE9A87602C}"/>
   </bookViews>
@@ -19,15 +19,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'car inventory'!$A$1:$N$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
   <si>
     <t>Car ID</t>
   </si>
@@ -411,6 +422,12 @@
   </si>
   <si>
     <t xml:space="preserve">total miles covered by smith: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft report link: </t>
+  </si>
+  <si>
+    <t>click here</t>
   </si>
 </sst>
 </file>
@@ -419,9 +436,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +577,29 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,7 +908,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -912,6 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -922,14 +963,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -937,8 +974,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -973,6 +1014,7 @@
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
@@ -3921,7 +3963,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1400" baseline="0"/>
-            <a:t>8. copy results to a report in microsoft</a:t>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" baseline="0"/>
+            <a:t>copy results to a report in microsoft </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4069,7 +4115,7 @@
         <s v="Gaul"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Warantee Miles" numFmtId="171">
+    <cacheField name="Warantee Miles" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50000" maxValue="100000"/>
     </cacheField>
     <cacheField name="Covered?" numFmtId="0">
@@ -4925,7 +4971,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC17B602-D0EF-414D-B94F-66FF82C62117}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC17B602-D0EF-414D-B94F-66FF82C62117}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -4985,7 +5031,7 @@
         <item t="default" sd="0"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="171" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -5406,7 +5452,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
@@ -5417,200 +5463,200 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>19694.782857142854</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>144647.69999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>24294.216936936937</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>150656.40000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>26166.802298850576</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>154427.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>17153.754898550724</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>179986</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>21493.371291866028</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>143640.70000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>21850.16745519713</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>135078.20000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>16282.565045682288</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>184693.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>21789.578926955401</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>127731.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>21620.152941176471</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>70964.899999999994</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>66951.733333333337</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>65315</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>20975.55417700579</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>138561.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>22056.34181818182</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>141229.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>45434.01540932271</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>305432.40000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>19879.475959595959</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>177713.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>41910.365079365081</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>65964.899999999994</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>28405.852216748768</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>130601.59999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>7736.68</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>19341.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>443695.41064591176</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>2335987.2999999998</v>
       </c>
     </row>
@@ -5624,8 +5670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D68F344-354C-461D-A5E2-7A9571CF39F5}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5638,10 +5684,10 @@
     <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.44140625" customWidth="1"/>
     <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
@@ -5674,7 +5720,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -5683,7 +5729,7 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -5698,34 +5744,34 @@
         <v>59</v>
       </c>
       <c r="B2" t="str">
-        <f>LEFT(A2,2)</f>
+        <f t="shared" ref="B2:B33" si="0">LEFT(A2,2)</f>
         <v>TY</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,B$57:C$62,2)</f>
+        <f t="shared" ref="C2:C33" si="1">VLOOKUP(B2,B$57:C$62,2)</f>
         <v>Toyota</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(A2,5,3)</f>
+        <f t="shared" ref="D2:D33" si="2">MID(A2,5,3)</f>
         <v>COR</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(D2,D$57:E$67,2)</f>
+        <f t="shared" ref="E2:E33" si="3">VLOOKUP(D2,D$57:E$67,2)</f>
         <v>Corola</v>
       </c>
       <c r="F2" t="str">
-        <f>MID(A2,3,2)</f>
+        <f t="shared" ref="F2:F33" si="4">MID(A2,3,2)</f>
         <v>14</v>
       </c>
       <c r="G2">
-        <f>IF(14-F2&lt;0,100-F2+14,14-F2)</f>
+        <f t="shared" ref="G2:G33" si="5">IF(14-F2&lt;0,100-F2+14,14-F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>17556.3</v>
       </c>
-      <c r="I2" s="5">
-        <f>H2/(G2+0.5)</f>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I33" si="6">H2/(G2+0.5)</f>
         <v>35112.6</v>
       </c>
       <c r="J2" t="s">
@@ -5734,18 +5780,18 @@
       <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>100000</v>
       </c>
       <c r="M2" t="str">
-        <f>IF(H2&lt;=L2,"Y","Not Covered")</f>
+        <f t="shared" ref="M2:M33" si="7">IF(H2&lt;=L2,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
+        <f t="shared" ref="N2:N33" si="8">CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
         <v>TY14CORBLU027</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>127</v>
       </c>
       <c r="R2" s="3">
@@ -5758,34 +5804,34 @@
         <v>41</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,2)</f>
+        <f t="shared" si="0"/>
         <v>GM</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>General Motors</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(A3,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CMR</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Camero</v>
       </c>
       <c r="F3" t="str">
-        <f>MID(A3,3,2)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G3">
-        <f>IF(14-F3&lt;0,100-F3+14,14-F3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>14289.6</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3/(G3+0.5)</f>
+      <c r="I3" s="3">
+        <f t="shared" si="6"/>
         <v>28579.200000000001</v>
       </c>
       <c r="J3" t="s">
@@ -5794,51 +5840,51 @@
       <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>100000</v>
       </c>
       <c r="M3" t="str">
-        <f>IF(H3&lt;=L3,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <f t="shared" si="8"/>
         <v>GM14CMRWHI016</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D4" t="str">
-        <f>MID(A4,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F4" t="str">
-        <f>MID(A4,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G4">
-        <f>IF(14-F4&lt;0,100-F4+14,14-F4)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>27637.1</v>
       </c>
-      <c r="I4" s="5">
-        <f>H4/(G4+0.5)</f>
+      <c r="I4" s="3">
+        <f t="shared" si="6"/>
         <v>18424.733333333334</v>
       </c>
       <c r="J4" t="s">
@@ -5847,16 +5893,22 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>75000</v>
       </c>
       <c r="M4" t="str">
-        <f>IF(H4&lt;=L4,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE(B4,F4,D4,UPPER(LEFT(J4,3)),RIGHT(A4,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSBLA009</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5864,34 +5916,34 @@
         <v>30</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D5" t="str">
-        <f>MID(A5,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F5" t="str">
-        <f>MID(A5,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G5">
-        <f>IF(14-F5&lt;0,100-F5+14,14-F5)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>27534.799999999999</v>
       </c>
-      <c r="I5" s="5">
-        <f>H5/(G5+0.5)</f>
+      <c r="I5" s="3">
+        <f t="shared" si="6"/>
         <v>18356.533333333333</v>
       </c>
       <c r="J5" t="s">
@@ -5900,15 +5952,15 @@
       <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>75000</v>
       </c>
       <c r="M5" t="str">
-        <f>IF(H5&lt;=L5,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N5" t="str">
-        <f>CONCATENATE(B5,F5,D5,UPPER(LEFT(J5,3)),RIGHT(A5,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSWHI010</v>
       </c>
     </row>
@@ -5917,34 +5969,34 @@
         <v>34</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D6" t="str">
-        <f>MID(A6,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F6" t="str">
-        <f>MID(A6,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G6">
-        <f>IF(14-F6&lt;0,100-F6+14,14-F6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>22521.599999999999</v>
       </c>
-      <c r="I6" s="5">
-        <f>H6/(G6+0.5)</f>
+      <c r="I6" s="3">
+        <f t="shared" si="6"/>
         <v>15014.4</v>
       </c>
       <c r="J6" t="s">
@@ -5953,15 +6005,15 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>75000</v>
       </c>
       <c r="M6" t="str">
-        <f>IF(H6&lt;=L6,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N6" t="str">
-        <f>CONCATENATE(B6,F6,D6,UPPER(LEFT(J6,3)),RIGHT(A6,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSBLA012</v>
       </c>
     </row>
@@ -5970,34 +6022,34 @@
         <v>82</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,2)</f>
+        <f t="shared" si="0"/>
         <v>HY</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Hundai</v>
       </c>
       <c r="D7" t="str">
-        <f>MID(A7,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ELA</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Elantra</v>
       </c>
       <c r="F7" t="str">
-        <f>MID(A7,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G7">
-        <f>IF(14-F7&lt;0,100-F7+14,14-F7)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>22188.5</v>
       </c>
-      <c r="I7" s="5">
-        <f>H7/(G7+0.5)</f>
+      <c r="I7" s="3">
+        <f t="shared" si="6"/>
         <v>14792.333333333334</v>
       </c>
       <c r="J7" t="s">
@@ -6006,15 +6058,15 @@
       <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>100000</v>
       </c>
       <c r="M7" t="str">
-        <f>IF(H7&lt;=L7,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N7" t="str">
-        <f>CONCATENATE(B7,F7,D7,UPPER(LEFT(J7,3)),RIGHT(A7,3))</f>
+        <f t="shared" si="8"/>
         <v>HY13ELABLU052</v>
       </c>
     </row>
@@ -6023,34 +6075,34 @@
         <v>81</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,2)</f>
+        <f t="shared" si="0"/>
         <v>HY</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Hundai</v>
       </c>
       <c r="D8" t="str">
-        <f>MID(A8,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ELA</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Elantra</v>
       </c>
       <c r="F8" t="str">
-        <f>MID(A8,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G8">
-        <f>IF(14-F8&lt;0,100-F8+14,14-F8)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>20223.900000000001</v>
       </c>
-      <c r="I8" s="5">
-        <f>H8/(G8+0.5)</f>
+      <c r="I8" s="3">
+        <f t="shared" si="6"/>
         <v>13482.6</v>
       </c>
       <c r="J8" t="s">
@@ -6059,15 +6111,15 @@
       <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>100000</v>
       </c>
       <c r="M8" t="str">
-        <f>IF(H8&lt;=L8,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N8" t="str">
-        <f>CONCATENATE(B8,F8,D8,UPPER(LEFT(J8,3)),RIGHT(A8,3))</f>
+        <f t="shared" si="8"/>
         <v>HY13ELABLA051</v>
       </c>
     </row>
@@ -6076,34 +6128,34 @@
         <v>60</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D9" t="str">
-        <f>MID(A9,5,3)</f>
+        <f t="shared" si="2"/>
         <v>COR</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Corola</v>
       </c>
       <c r="F9" t="str">
-        <f>MID(A9,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G9">
-        <f>IF(14-F9&lt;0,100-F9+14,14-F9)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H9" s="3">
         <v>29601.9</v>
       </c>
-      <c r="I9" s="5">
-        <f>H9/(G9+0.5)</f>
+      <c r="I9" s="3">
+        <f t="shared" si="6"/>
         <v>11840.76</v>
       </c>
       <c r="J9" t="s">
@@ -6112,15 +6164,15 @@
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>100000</v>
       </c>
       <c r="M9" t="str">
-        <f>IF(H9&lt;=L9,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N9" t="str">
-        <f>CONCATENATE(B9,F9,D9,UPPER(LEFT(J9,3)),RIGHT(A9,3))</f>
+        <f t="shared" si="8"/>
         <v>TY12CORBLA028</v>
       </c>
     </row>
@@ -6129,34 +6181,34 @@
         <v>67</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D10" t="str">
-        <f>MID(A10,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F10" t="str">
-        <f>MID(A10,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G10">
-        <f>IF(14-F10&lt;0,100-F10+14,14-F10)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H10" s="3">
         <v>24513.200000000001</v>
       </c>
-      <c r="I10" s="5">
-        <f>H10/(G10+0.5)</f>
+      <c r="I10" s="3">
+        <f t="shared" si="6"/>
         <v>9805.2800000000007</v>
       </c>
       <c r="J10" t="s">
@@ -6165,15 +6217,15 @@
       <c r="K10" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>75000</v>
       </c>
       <c r="M10" t="str">
-        <f>IF(H10&lt;=L10,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N10" t="str">
-        <f>CONCATENATE(B10,F10,D10,UPPER(LEFT(J10,3)),RIGHT(A10,3))</f>
+        <f t="shared" si="8"/>
         <v>HO12CIVBLA035</v>
       </c>
     </row>
@@ -6182,34 +6234,34 @@
         <v>68</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D11" t="str">
-        <f>MID(A11,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F11" t="str">
-        <f>MID(A11,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G11">
-        <f>IF(14-F11&lt;0,100-F11+14,14-F11)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>13867.6</v>
       </c>
-      <c r="I11" s="5">
-        <f>H11/(G11+0.5)</f>
+      <c r="I11" s="3">
+        <f t="shared" si="6"/>
         <v>9245.0666666666675</v>
       </c>
       <c r="J11" t="s">
@@ -6218,15 +6270,15 @@
       <c r="K11" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>75000</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(H11&lt;=L11,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE(B11,F11,D11,UPPER(LEFT(J11,3)),RIGHT(A11,3))</f>
+        <f t="shared" si="8"/>
         <v>HO13CIVBLA036</v>
       </c>
     </row>
@@ -6235,34 +6287,34 @@
         <v>36</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D12" t="str">
-        <f>MID(A12,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F12" t="str">
-        <f>MID(A12,3,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G12">
-        <f>IF(14-F12&lt;0,100-F12+14,14-F12)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>13682.9</v>
       </c>
-      <c r="I12" s="5">
-        <f>H12/(G12+0.5)</f>
+      <c r="I12" s="3">
+        <f t="shared" si="6"/>
         <v>9121.9333333333325</v>
       </c>
       <c r="J12" t="s">
@@ -6271,15 +6323,15 @@
       <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>75000</v>
       </c>
       <c r="M12" t="str">
-        <f>IF(H12&lt;=L12,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N12" t="str">
-        <f>CONCATENATE(B12,F12,D12,UPPER(LEFT(J12,3)),RIGHT(A12,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSBLA013</v>
       </c>
     </row>
@@ -6288,34 +6340,34 @@
         <v>80</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,2)</f>
+        <f t="shared" si="0"/>
         <v>HY</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Hundai</v>
       </c>
       <c r="D13" t="str">
-        <f>MID(A13,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ELA</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Elantra</v>
       </c>
       <c r="F13" t="str">
-        <f>MID(A13,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G13">
-        <f>IF(14-F13&lt;0,100-F13+14,14-F13)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>22282</v>
       </c>
-      <c r="I13" s="5">
-        <f>H13/(G13+0.5)</f>
+      <c r="I13" s="3">
+        <f t="shared" si="6"/>
         <v>8912.7999999999993</v>
       </c>
       <c r="J13" t="s">
@@ -6324,15 +6376,15 @@
       <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>100000</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(H13&lt;=L13,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N13" t="str">
-        <f>CONCATENATE(B13,F13,D13,UPPER(LEFT(J13,3)),RIGHT(A13,3))</f>
+        <f t="shared" si="8"/>
         <v>HY12ELABLU050</v>
       </c>
     </row>
@@ -6341,34 +6393,34 @@
         <v>61</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D14" t="str">
-        <f>MID(A14,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F14" t="str">
-        <f>MID(A14,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G14">
-        <f>IF(14-F14&lt;0,100-F14+14,14-F14)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>22128.2</v>
       </c>
-      <c r="I14" s="5">
-        <f>H14/(G14+0.5)</f>
+      <c r="I14" s="3">
+        <f t="shared" si="6"/>
         <v>8851.2800000000007</v>
       </c>
       <c r="J14" t="s">
@@ -6377,15 +6429,15 @@
       <c r="K14" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>100000</v>
       </c>
       <c r="M14" t="str">
-        <f>IF(H14&lt;=L14,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N14" t="str">
-        <f>CONCATENATE(B14,F14,D14,UPPER(LEFT(J14,3)),RIGHT(A14,3))</f>
+        <f t="shared" si="8"/>
         <v>TY12CAMBLU029</v>
       </c>
     </row>
@@ -6394,34 +6446,34 @@
         <v>54</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D15" t="str">
-        <f>MID(A15,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F15" t="str">
-        <f>MID(A15,3,2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="G15">
-        <f>IF(14-F15&lt;0,100-F15+14,14-F15)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>48114.2</v>
       </c>
-      <c r="I15" s="5">
-        <f>H15/(G15+0.5)</f>
+      <c r="I15" s="3">
+        <f t="shared" si="6"/>
         <v>8748.0363636363636</v>
       </c>
       <c r="J15" t="s">
@@ -6430,15 +6482,15 @@
       <c r="K15" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>100000</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(H15&lt;=L15,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N15" t="str">
-        <f>CONCATENATE(B15,F15,D15,UPPER(LEFT(J15,3)),RIGHT(A15,3))</f>
+        <f t="shared" si="8"/>
         <v>TY09CAMWHI024</v>
       </c>
     </row>
@@ -6447,34 +6499,34 @@
         <v>66</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D16" t="str">
-        <f>MID(A16,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F16" t="str">
-        <f>MID(A16,3,2)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G16">
-        <f>IF(14-F16&lt;0,100-F16+14,14-F16)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H16" s="3">
         <v>30555.3</v>
       </c>
-      <c r="I16" s="5">
-        <f>H16/(G16+0.5)</f>
+      <c r="I16" s="3">
+        <f t="shared" si="6"/>
         <v>8730.0857142857149</v>
       </c>
       <c r="J16" t="s">
@@ -6483,15 +6535,15 @@
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>75000</v>
       </c>
       <c r="M16" t="str">
-        <f>IF(H16&lt;=L16,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N16" t="str">
-        <f>CONCATENATE(B16,F16,D16,UPPER(LEFT(J16,3)),RIGHT(A16,3))</f>
+        <f t="shared" si="8"/>
         <v>HO11CIVBLA034</v>
       </c>
     </row>
@@ -6500,34 +6552,34 @@
         <v>79</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,2)</f>
+        <f t="shared" si="0"/>
         <v>HY</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Hundai</v>
       </c>
       <c r="D17" t="str">
-        <f>MID(A17,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ELA</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Elantra</v>
       </c>
       <c r="F17" t="str">
-        <f>MID(A17,3,2)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G17">
-        <f>IF(14-F17&lt;0,100-F17+14,14-F17)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>29102.3</v>
       </c>
-      <c r="I17" s="5">
-        <f>H17/(G17+0.5)</f>
+      <c r="I17" s="3">
+        <f t="shared" si="6"/>
         <v>8314.9428571428562</v>
       </c>
       <c r="J17" t="s">
@@ -6536,15 +6588,15 @@
       <c r="K17" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>100000</v>
       </c>
       <c r="M17" t="str">
-        <f>IF(H17&lt;=L17,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N17" t="str">
-        <f>CONCATENATE(B17,F17,D17,UPPER(LEFT(J17,3)),RIGHT(A17,3))</f>
+        <f t="shared" si="8"/>
         <v>HY11ELABLA049</v>
       </c>
     </row>
@@ -6553,34 +6605,34 @@
         <v>74</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D18" t="str">
-        <f>MID(A18,5,3)</f>
+        <f t="shared" si="2"/>
         <v>PTC</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>PTCruiser</v>
       </c>
       <c r="F18" t="str">
-        <f>MID(A18,3,2)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G18">
-        <f>IF(14-F18&lt;0,100-F18+14,14-F18)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H18" s="3">
         <v>27394.2</v>
       </c>
-      <c r="I18" s="5">
-        <f>H18/(G18+0.5)</f>
+      <c r="I18" s="3">
+        <f t="shared" si="6"/>
         <v>7826.9142857142861</v>
       </c>
       <c r="J18" t="s">
@@ -6589,15 +6641,15 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>75000</v>
       </c>
       <c r="M18" t="str">
-        <f>IF(H18&lt;=L18,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N18" t="str">
-        <f>CONCATENATE(B18,F18,D18,UPPER(LEFT(J18,3)),RIGHT(A18,3))</f>
+        <f t="shared" si="8"/>
         <v>CR11PTCBLA044</v>
       </c>
     </row>
@@ -6606,34 +6658,34 @@
         <v>39</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,2)</f>
+        <f t="shared" si="0"/>
         <v>GM</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>General Motors</v>
       </c>
       <c r="D19" t="str">
-        <f>MID(A19,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CMR</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Camero</v>
       </c>
       <c r="F19" t="str">
-        <f>MID(A19,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G19">
-        <f>IF(14-F19&lt;0,100-F19+14,14-F19)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>19421.099999999999</v>
       </c>
-      <c r="I19" s="5">
-        <f>H19/(G19+0.5)</f>
+      <c r="I19" s="3">
+        <f t="shared" si="6"/>
         <v>7768.44</v>
       </c>
       <c r="J19" t="s">
@@ -6642,15 +6694,15 @@
       <c r="K19" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>100000</v>
       </c>
       <c r="M19" t="str">
-        <f>IF(H19&lt;=L19,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N19" t="str">
-        <f>CONCATENATE(B19,F19,D19,UPPER(LEFT(J19,3)),RIGHT(A19,3))</f>
+        <f t="shared" si="8"/>
         <v>GM12CMRBLA015</v>
       </c>
     </row>
@@ -6659,34 +6711,34 @@
         <v>32</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D20" t="str">
-        <f>MID(A20,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F20" t="str">
-        <f>MID(A20,3,2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G20">
-        <f>IF(14-F20&lt;0,100-F20+14,14-F20)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H20" s="3">
         <v>19341.7</v>
       </c>
-      <c r="I20" s="5">
-        <f>H20/(G20+0.5)</f>
+      <c r="I20" s="3">
+        <f t="shared" si="6"/>
         <v>7736.68</v>
       </c>
       <c r="J20" t="s">
@@ -6695,15 +6747,15 @@
       <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>75000</v>
       </c>
       <c r="M20" t="str">
-        <f>IF(H20&lt;=L20,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N20" t="str">
-        <f>CONCATENATE(B20,F20,D20,UPPER(LEFT(J20,3)),RIGHT(A20,3))</f>
+        <f t="shared" si="8"/>
         <v>FD12FCSWHI011</v>
       </c>
     </row>
@@ -6712,34 +6764,34 @@
         <v>65</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D21" t="str">
-        <f>MID(A21,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F21" t="str">
-        <f>MID(A21,3,2)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G21">
-        <f>IF(14-F21&lt;0,100-F21+14,14-F21)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>33477.199999999997</v>
       </c>
-      <c r="I21" s="5">
-        <f>H21/(G21+0.5)</f>
+      <c r="I21" s="3">
+        <f t="shared" si="6"/>
         <v>7439.3777777777768</v>
       </c>
       <c r="J21" t="s">
@@ -6748,15 +6800,15 @@
       <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>75000</v>
       </c>
       <c r="M21" t="str">
-        <f>IF(H21&lt;=L21,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N21" t="str">
-        <f>CONCATENATE(B21,F21,D21,UPPER(LEFT(J21,3)),RIGHT(A21,3))</f>
+        <f t="shared" si="8"/>
         <v>HO10CIVBLA033</v>
       </c>
     </row>
@@ -6765,34 +6817,34 @@
         <v>71</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D22" t="str">
-        <f>MID(A22,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F22" t="str">
-        <f>MID(A22,3,2)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G22">
-        <f>IF(14-F22&lt;0,100-F22+14,14-F22)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>3708.1</v>
       </c>
-      <c r="I22" s="5">
-        <f>H22/(G22+0.5)</f>
+      <c r="I22" s="3">
+        <f t="shared" si="6"/>
         <v>7416.2</v>
       </c>
       <c r="J22" t="s">
@@ -6801,15 +6853,15 @@
       <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>100000</v>
       </c>
       <c r="M22" t="str">
-        <f>IF(H22&lt;=L22,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N22" t="str">
-        <f>CONCATENATE(B22,F22,D22,UPPER(LEFT(J22,3)),RIGHT(A22,3))</f>
+        <f t="shared" si="8"/>
         <v>HO14ODYBLA041</v>
       </c>
     </row>
@@ -6818,34 +6870,34 @@
         <v>43</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,2)</f>
+        <f t="shared" si="0"/>
         <v>GM</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>General Motors</v>
       </c>
       <c r="D23" t="str">
-        <f>MID(A23,5,3)</f>
+        <f t="shared" si="2"/>
         <v>SLV</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(D23,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Silerado</v>
       </c>
       <c r="F23" t="str">
-        <f>MID(A23,3,2)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G23">
-        <f>IF(14-F23&lt;0,100-F23+14,14-F23)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H23" s="3">
         <v>31144.400000000001</v>
       </c>
-      <c r="I23" s="5">
-        <f>H23/(G23+0.5)</f>
+      <c r="I23" s="3">
+        <f t="shared" si="6"/>
         <v>6920.9777777777781</v>
       </c>
       <c r="J23" t="s">
@@ -6854,15 +6906,15 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>100000</v>
       </c>
       <c r="M23" t="str">
-        <f>IF(H23&lt;=L23,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N23" t="str">
-        <f>CONCATENATE(B23,F23,D23,UPPER(LEFT(J23,3)),RIGHT(A23,3))</f>
+        <f t="shared" si="8"/>
         <v>GM10SLVBLA017</v>
       </c>
     </row>
@@ -6871,34 +6923,34 @@
         <v>19</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D24" t="str">
-        <f>MID(A24,5,3)</f>
+        <f t="shared" si="2"/>
         <v>MTG</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
       <c r="F24" t="str">
-        <f>MID(A24,3,2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="G24">
-        <f>IF(14-F24&lt;0,100-F24+14,14-F24)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H24" s="3">
         <v>44946.5</v>
       </c>
-      <c r="I24" s="5">
-        <f>H24/(G24+0.5)</f>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
         <v>6914.8461538461543</v>
       </c>
       <c r="J24" t="s">
@@ -6907,15 +6959,15 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>50000</v>
       </c>
       <c r="M24" t="str">
-        <f>IF(H24&lt;=L24,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N24" t="str">
-        <f>CONCATENATE(B24,F24,D24,UPPER(LEFT(J24,3)),RIGHT(A24,3))</f>
+        <f t="shared" si="8"/>
         <v>FD08MTGGRE003</v>
       </c>
     </row>
@@ -6924,34 +6976,34 @@
         <v>77</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D25" t="str">
-        <f>MID(A25,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CAR</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Caravan</v>
       </c>
       <c r="F25" t="str">
-        <f>MID(A25,3,2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="G25">
-        <f>IF(14-F25&lt;0,100-F25+14,14-F25)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>72527.199999999997</v>
       </c>
-      <c r="I25" s="5">
-        <f>H25/(G25+0.5)</f>
+      <c r="I25" s="3">
+        <f t="shared" si="6"/>
         <v>6907.3523809523804</v>
       </c>
       <c r="J25" t="s">
@@ -6960,15 +7012,15 @@
       <c r="K25" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>75000</v>
       </c>
       <c r="M25" t="str">
-        <f>IF(H25&lt;=L25,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N25" t="str">
-        <f>CONCATENATE(B25,F25,D25,UPPER(LEFT(J25,3)),RIGHT(A25,3))</f>
+        <f t="shared" si="8"/>
         <v>CR04CARWHI047</v>
       </c>
     </row>
@@ -6977,34 +7029,34 @@
         <v>69</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D26" t="str">
-        <f>MID(A26,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F26" t="str">
-        <f>MID(A26,3,2)</f>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="G26">
-        <f>IF(14-F26&lt;0,100-F26+14,14-F26)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H26" s="3">
         <v>50854.1</v>
       </c>
-      <c r="I26" s="5">
-        <f>H26/(G26+0.5)</f>
+      <c r="I26" s="3">
+        <f t="shared" si="6"/>
         <v>6780.5466666666662</v>
       </c>
       <c r="J26" t="s">
@@ -7013,15 +7065,15 @@
       <c r="K26" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>100000</v>
       </c>
       <c r="M26" t="str">
-        <f>IF(H26&lt;=L26,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N26" t="str">
-        <f>CONCATENATE(B26,F26,D26,UPPER(LEFT(J26,3)),RIGHT(A26,3))</f>
+        <f t="shared" si="8"/>
         <v>HO07ODYBLA038</v>
       </c>
     </row>
@@ -7030,34 +7082,34 @@
         <v>70</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(B27,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D27" t="str">
-        <f>MID(A27,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F27" t="str">
-        <f>MID(A27,3,2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="G27">
-        <f>IF(14-F27&lt;0,100-F27+14,14-F27)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H27" s="3">
         <v>42504.6</v>
       </c>
-      <c r="I27" s="5">
-        <f>H27/(G27+0.5)</f>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
         <v>6539.1692307692301</v>
       </c>
       <c r="J27" t="s">
@@ -7066,15 +7118,15 @@
       <c r="K27" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>100000</v>
       </c>
       <c r="M27" t="str">
-        <f>IF(H27&lt;=L27,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N27" t="str">
-        <f>CONCATENATE(B27,F27,D27,UPPER(LEFT(J27,3)),RIGHT(A27,3))</f>
+        <f t="shared" si="8"/>
         <v>HO08ODYWHI039</v>
       </c>
     </row>
@@ -7083,34 +7135,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(B28,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D28" t="str">
-        <f>MID(A28,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F28" t="str">
-        <f>MID(A28,3,2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="G28">
-        <f>IF(14-F28&lt;0,100-F28+14,14-F28)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H28" s="3">
         <v>35137</v>
       </c>
-      <c r="I28" s="5">
-        <f>H28/(G28+0.5)</f>
+      <c r="I28" s="3">
+        <f t="shared" si="6"/>
         <v>6388.545454545455</v>
       </c>
       <c r="J28" t="s">
@@ -7119,15 +7171,15 @@
       <c r="K28" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <v>75000</v>
       </c>
       <c r="M28" t="str">
-        <f>IF(H28&lt;=L28,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N28" t="str">
-        <f>CONCATENATE(B28,F28,D28,UPPER(LEFT(J28,3)),RIGHT(A28,3))</f>
+        <f t="shared" si="8"/>
         <v>FD09FCSBLA008</v>
       </c>
     </row>
@@ -7136,34 +7188,34 @@
         <v>58</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(B29,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D29" t="str">
-        <f>MID(A29,5,3)</f>
+        <f t="shared" si="2"/>
         <v>COR</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Corola</v>
       </c>
       <c r="F29" t="str">
-        <f>MID(A29,3,2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="G29">
-        <f>IF(14-F29&lt;0,100-F29+14,14-F29)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H29" s="3">
         <v>73444.399999999994</v>
       </c>
-      <c r="I29" s="5">
-        <f>H29/(G29+0.5)</f>
+      <c r="I29" s="3">
+        <f t="shared" si="6"/>
         <v>6386.4695652173905</v>
       </c>
       <c r="J29" t="s">
@@ -7172,15 +7224,15 @@
       <c r="K29" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>100000</v>
       </c>
       <c r="M29" t="str">
-        <f>IF(H29&lt;=L29,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N29" t="str">
-        <f>CONCATENATE(B29,F29,D29,UPPER(LEFT(J29,3)),RIGHT(A29,3))</f>
+        <f t="shared" si="8"/>
         <v>TY03CORBLA026</v>
       </c>
     </row>
@@ -7189,34 +7241,34 @@
         <v>121</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(B30,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D30" t="str">
-        <f>MID(A30,5,3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F30" t="str">
-        <f>MID(A30,3,2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="G30">
-        <f>IF(14-F30&lt;0,100-F30+14,14-F30)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="H30" s="3">
         <v>60389.5</v>
       </c>
-      <c r="I30" s="5">
-        <f>H30/(G30+0.5)</f>
+      <c r="I30" s="3">
+        <f t="shared" si="6"/>
         <v>6356.7894736842109</v>
       </c>
       <c r="J30" t="s">
@@ -7225,15 +7277,15 @@
       <c r="K30" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>100000</v>
       </c>
       <c r="M30" t="str">
-        <f>IF(H30&lt;=L30,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N30" t="str">
-        <f>CONCATENATE(B30,F30,D30,UPPER(LEFT(J30,3)),RIGHT(A30,3))</f>
+        <f t="shared" si="8"/>
         <v>HO05ODYWHI037</v>
       </c>
     </row>
@@ -7242,34 +7294,34 @@
         <v>48</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(B31,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D31" t="str">
-        <f>MID(A31,5,3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F31" t="str">
-        <f>MID(A31,3,2)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="G31">
-        <f>IF(14-F31&lt;0,100-F31+14,14-F31)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="H31" s="3">
         <v>114660.6</v>
       </c>
-      <c r="I31" s="5">
-        <f>H31/(G31+0.5)</f>
+      <c r="I31" s="3">
+        <f t="shared" si="6"/>
         <v>6197.8702702702703</v>
       </c>
       <c r="J31" t="s">
@@ -7278,15 +7330,15 @@
       <c r="K31" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="5">
         <v>100000</v>
       </c>
       <c r="M31" t="str">
-        <f>IF(H31&lt;=L31,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Not Covered</v>
       </c>
       <c r="N31" t="str">
-        <f>CONCATENATE(B31,F31,D31,UPPER(LEFT(J31,3)),RIGHT(A31,3))</f>
+        <f t="shared" si="8"/>
         <v>TY96CAMGRE020</v>
       </c>
     </row>
@@ -7295,34 +7347,34 @@
         <v>72</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(B32,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D32" t="str">
-        <f>MID(A32,5,3)</f>
+        <f t="shared" si="2"/>
         <v>PTC</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>PTCruiser</v>
       </c>
       <c r="F32" t="str">
-        <f>MID(A32,3,2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="G32">
-        <f>IF(14-F32&lt;0,100-F32+14,14-F32)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>64542</v>
       </c>
-      <c r="I32" s="5">
-        <f>H32/(G32+0.5)</f>
+      <c r="I32" s="3">
+        <f t="shared" si="6"/>
         <v>6146.8571428571431</v>
       </c>
       <c r="J32" t="s">
@@ -7331,15 +7383,15 @@
       <c r="K32" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>75000</v>
       </c>
       <c r="M32" t="str">
-        <f>IF(H32&lt;=L32,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N32" t="str">
-        <f>CONCATENATE(B32,F32,D32,UPPER(LEFT(J32,3)),RIGHT(A32,3))</f>
+        <f t="shared" si="8"/>
         <v>CR04PTCBLU042</v>
       </c>
     </row>
@@ -7348,34 +7400,34 @@
         <v>26</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(B33,B$57:C$62,2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D33" t="str">
-        <f>MID(A33,5,3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,D$57:E$67,2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F33" t="str">
-        <f>MID(A33,3,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="G33">
-        <f>IF(14-F33&lt;0,100-F33+14,14-F33)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H33" s="3">
         <v>52229.5</v>
       </c>
-      <c r="I33" s="5">
-        <f>H33/(G33+0.5)</f>
+      <c r="I33" s="3">
+        <f t="shared" si="6"/>
         <v>6144.6470588235297</v>
       </c>
       <c r="J33" t="s">
@@ -7384,15 +7436,15 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="5">
         <v>75000</v>
       </c>
       <c r="M33" t="str">
-        <f>IF(H33&lt;=L33,"Y","Not Covered")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N33" t="str">
-        <f>CONCATENATE(B33,F33,D33,UPPER(LEFT(J33,3)),RIGHT(A33,3))</f>
+        <f t="shared" si="8"/>
         <v>FD06FCSGRE007</v>
       </c>
     </row>
@@ -7401,34 +7453,34 @@
         <v>52</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,2)</f>
+        <f t="shared" ref="B34:B65" si="9">LEFT(A34,2)</f>
         <v>TY</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(B34,B$57:C$62,2)</f>
+        <f t="shared" ref="C34:C65" si="10">VLOOKUP(B34,B$57:C$62,2)</f>
         <v>Toyota</v>
       </c>
       <c r="D34" t="str">
-        <f>MID(A34,5,3)</f>
+        <f t="shared" ref="D34:D53" si="11">MID(A34,5,3)</f>
         <v>CAM</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,D$57:E$67,2)</f>
+        <f t="shared" ref="E34:E65" si="12">VLOOKUP(D34,D$57:E$67,2)</f>
         <v>Camrey</v>
       </c>
       <c r="F34" t="str">
-        <f>MID(A34,3,2)</f>
+        <f t="shared" ref="F34:F53" si="13">MID(A34,3,2)</f>
         <v>00</v>
       </c>
       <c r="G34">
-        <f>IF(14-F34&lt;0,100-F34+14,14-F34)</f>
+        <f t="shared" ref="G34:G65" si="14">IF(14-F34&lt;0,100-F34+14,14-F34)</f>
         <v>14</v>
       </c>
       <c r="H34" s="3">
         <v>85928</v>
       </c>
-      <c r="I34" s="5">
-        <f>H34/(G34+0.5)</f>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34:I65" si="15">H34/(G34+0.5)</f>
         <v>5926.0689655172409</v>
       </c>
       <c r="J34" t="s">
@@ -7437,15 +7489,15 @@
       <c r="K34" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="5">
         <v>100000</v>
       </c>
       <c r="M34" t="str">
-        <f>IF(H34&lt;=L34,"Y","Not Covered")</f>
+        <f t="shared" ref="M34:M65" si="16">IF(H34&lt;=L34,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N34" t="str">
-        <f>CONCATENATE(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
+        <f t="shared" ref="N34:N53" si="17">CONCATENATE(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
         <v>TY00CAMGRE022</v>
       </c>
     </row>
@@ -7454,34 +7506,34 @@
         <v>22</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(B35,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D35" t="str">
-        <f>MID(A35,5,3)</f>
+        <f t="shared" si="11"/>
         <v>MTG</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Mustang</v>
       </c>
       <c r="F35" t="str">
-        <f>MID(A35,3,2)</f>
+        <f t="shared" si="13"/>
         <v>08</v>
       </c>
       <c r="G35">
-        <f>IF(14-F35&lt;0,100-F35+14,14-F35)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H35" s="3">
         <v>37558.800000000003</v>
       </c>
-      <c r="I35" s="5">
-        <f>H35/(G35+0.5)</f>
+      <c r="I35" s="3">
+        <f t="shared" si="15"/>
         <v>5778.2769230769236</v>
       </c>
       <c r="J35" t="s">
@@ -7490,15 +7542,15 @@
       <c r="K35" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="5">
         <v>50000</v>
       </c>
       <c r="M35" t="str">
-        <f>IF(H35&lt;=L35,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N35" t="str">
-        <f>CONCATENATE(B35,F35,D35,UPPER(LEFT(J35,3)),RIGHT(A35,3))</f>
+        <f t="shared" si="17"/>
         <v>FD08MTGBLA004</v>
       </c>
     </row>
@@ -7507,34 +7559,34 @@
         <v>50</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,2)</f>
+        <f t="shared" si="9"/>
         <v>TY</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(B36,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Toyota</v>
       </c>
       <c r="D36" t="str">
-        <f>MID(A36,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CAM</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Camrey</v>
       </c>
       <c r="F36" t="str">
-        <f>MID(A36,3,2)</f>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="G36">
-        <f>IF(14-F36&lt;0,100-F36+14,14-F36)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H36" s="3">
         <v>93382.6</v>
       </c>
-      <c r="I36" s="5">
-        <f>H36/(G36+0.5)</f>
+      <c r="I36" s="3">
+        <f t="shared" si="15"/>
         <v>5659.5515151515156</v>
       </c>
       <c r="J36" t="s">
@@ -7543,15 +7595,15 @@
       <c r="K36" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="5">
         <v>100000</v>
       </c>
       <c r="M36" t="str">
-        <f>IF(H36&lt;=L36,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N36" t="str">
-        <f>CONCATENATE(B36,F36,D36,UPPER(LEFT(J36,3)),RIGHT(A36,3))</f>
+        <f t="shared" si="17"/>
         <v>TY98CAMBLA021</v>
       </c>
     </row>
@@ -7560,34 +7612,34 @@
         <v>73</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,2)</f>
+        <f t="shared" si="9"/>
         <v>CR</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(B37,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Chrysler</v>
       </c>
       <c r="D37" t="str">
-        <f>MID(A37,5,3)</f>
+        <f t="shared" si="11"/>
         <v>PTC</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>PTCruiser</v>
       </c>
       <c r="F37" t="str">
-        <f>MID(A37,3,2)</f>
+        <f t="shared" si="13"/>
         <v>07</v>
       </c>
       <c r="G37">
-        <f>IF(14-F37&lt;0,100-F37+14,14-F37)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H37" s="3">
         <v>42074.2</v>
       </c>
-      <c r="I37" s="5">
-        <f>H37/(G37+0.5)</f>
+      <c r="I37" s="3">
+        <f t="shared" si="15"/>
         <v>5609.8933333333325</v>
       </c>
       <c r="J37" t="s">
@@ -7596,15 +7648,15 @@
       <c r="K37" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="5">
         <v>75000</v>
       </c>
       <c r="M37" t="str">
-        <f>IF(H37&lt;=L37,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N37" t="str">
-        <f>CONCATENATE(B37,F37,D37,UPPER(LEFT(J37,3)),RIGHT(A37,3))</f>
+        <f t="shared" si="17"/>
         <v>CR07PTCGRE043</v>
       </c>
     </row>
@@ -7613,34 +7665,34 @@
         <v>24</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(B38,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D38" t="str">
-        <f>MID(A38,5,3)</f>
+        <f t="shared" si="11"/>
         <v>MTG</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Mustang</v>
       </c>
       <c r="F38" t="str">
-        <f>MID(A38,3,2)</f>
+        <f t="shared" si="13"/>
         <v>08</v>
       </c>
       <c r="G38">
-        <f>IF(14-F38&lt;0,100-F38+14,14-F38)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H38" s="3">
         <v>36438.5</v>
       </c>
-      <c r="I38" s="5">
-        <f>H38/(G38+0.5)</f>
+      <c r="I38" s="3">
+        <f t="shared" si="15"/>
         <v>5605.9230769230771</v>
       </c>
       <c r="J38" t="s">
@@ -7649,15 +7701,15 @@
       <c r="K38" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="5">
         <v>50000</v>
       </c>
       <c r="M38" t="str">
-        <f>IF(H38&lt;=L38,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N38" t="str">
-        <f>CONCATENATE(B38,F38,D38,UPPER(LEFT(J38,3)),RIGHT(A38,3))</f>
+        <f t="shared" si="17"/>
         <v>FD08MTGWHI005</v>
       </c>
     </row>
@@ -7666,34 +7718,34 @@
         <v>46</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(B39,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D39" t="str">
-        <f>MID(A39,5,3)</f>
+        <f t="shared" si="11"/>
         <v>SLV</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Silerado</v>
       </c>
       <c r="F39" t="str">
-        <f>MID(A39,3,2)</f>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
       <c r="G39">
-        <f>IF(14-F39&lt;0,100-F39+14,14-F39)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H39" s="3">
         <v>80685.8</v>
       </c>
-      <c r="I39" s="5">
-        <f>H39/(G39+0.5)</f>
+      <c r="I39" s="3">
+        <f t="shared" si="15"/>
         <v>5564.5379310344833</v>
       </c>
       <c r="J39" t="s">
@@ -7702,15 +7754,15 @@
       <c r="K39" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="5">
         <v>100000</v>
       </c>
       <c r="M39" t="str">
-        <f>IF(H39&lt;=L39,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N39" t="str">
-        <f>CONCATENATE(B39,F39,D39,UPPER(LEFT(J39,3)),RIGHT(A39,3))</f>
+        <f t="shared" si="17"/>
         <v>GM00SLVBLU019</v>
       </c>
     </row>
@@ -7719,34 +7771,34 @@
         <v>119</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40,2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(B40,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D40" t="str">
-        <f>MID(A40,5,3)</f>
+        <f t="shared" si="11"/>
         <v>FCS</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Focus</v>
       </c>
       <c r="F40" t="str">
-        <f>MID(A40,3,2)</f>
+        <f t="shared" si="13"/>
         <v>06</v>
       </c>
       <c r="G40">
-        <f>IF(14-F40&lt;0,100-F40+14,14-F40)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H40" s="3">
         <v>46311.4</v>
       </c>
-      <c r="I40" s="5">
-        <f>H40/(G40+0.5)</f>
+      <c r="I40" s="3">
+        <f t="shared" si="15"/>
         <v>5448.4000000000005</v>
       </c>
       <c r="J40" t="s">
@@ -7755,15 +7807,15 @@
       <c r="K40" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="5">
         <v>75000</v>
       </c>
       <c r="M40" t="str">
-        <f>IF(H40&lt;=L40,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N40" t="str">
-        <f>CONCATENATE(B40,F40,D40,UPPER(LEFT(J40,3)),RIGHT(A40,3))</f>
+        <f t="shared" si="17"/>
         <v>FD06FCSGRE006</v>
       </c>
     </row>
@@ -7772,34 +7824,34 @@
         <v>53</v>
       </c>
       <c r="B41" t="str">
-        <f>LEFT(A41,2)</f>
+        <f t="shared" si="9"/>
         <v>TY</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(B41,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Toyota</v>
       </c>
       <c r="D41" t="str">
-        <f>MID(A41,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CAM</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Camrey</v>
       </c>
       <c r="F41" t="str">
-        <f>MID(A41,3,2)</f>
+        <f t="shared" si="13"/>
         <v>02</v>
       </c>
       <c r="G41">
-        <f>IF(14-F41&lt;0,100-F41+14,14-F41)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H41" s="3">
         <v>67829.100000000006</v>
       </c>
-      <c r="I41" s="5">
-        <f>H41/(G41+0.5)</f>
+      <c r="I41" s="3">
+        <f t="shared" si="15"/>
         <v>5426.3280000000004</v>
       </c>
       <c r="J41" t="s">
@@ -7808,15 +7860,15 @@
       <c r="K41" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="5">
         <v>100000</v>
       </c>
       <c r="M41" t="str">
-        <f>IF(H41&lt;=L41,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N41" t="str">
-        <f>CONCATENATE(B41,F41,D41,UPPER(LEFT(J41,3)),RIGHT(A41,3))</f>
+        <f t="shared" si="17"/>
         <v>TY02CAMBLA023</v>
       </c>
     </row>
@@ -7825,34 +7877,34 @@
         <v>76</v>
       </c>
       <c r="B42" t="str">
-        <f>LEFT(A42,2)</f>
+        <f t="shared" si="9"/>
         <v>CR</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(B42,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Chrysler</v>
       </c>
       <c r="D42" t="str">
-        <f>MID(A42,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CAR</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Caravan</v>
       </c>
       <c r="F42" t="str">
-        <f>MID(A42,3,2)</f>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
       <c r="G42">
-        <f>IF(14-F42&lt;0,100-F42+14,14-F42)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H42" s="3">
         <v>77243.100000000006</v>
       </c>
-      <c r="I42" s="5">
-        <f>H42/(G42+0.5)</f>
+      <c r="I42" s="3">
+        <f t="shared" si="15"/>
         <v>5327.1103448275862</v>
       </c>
       <c r="J42" t="s">
@@ -7861,15 +7913,15 @@
       <c r="K42" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="5">
         <v>75000</v>
       </c>
       <c r="M42" t="str">
-        <f>IF(H42&lt;=L42,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Not Covered</v>
       </c>
       <c r="N42" t="str">
-        <f>CONCATENATE(B42,F42,D42,UPPER(LEFT(J42,3)),RIGHT(A42,3))</f>
+        <f t="shared" si="17"/>
         <v>CR00CARBLA046</v>
       </c>
     </row>
@@ -7878,34 +7930,34 @@
         <v>62</v>
       </c>
       <c r="B43" t="str">
-        <f>LEFT(A43,2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(B43,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D43" t="str">
-        <f>MID(A43,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F43" t="str">
-        <f>MID(A43,3,2)</f>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="G43">
-        <f>IF(14-F43&lt;0,100-F43+14,14-F43)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H43" s="3">
         <v>82374</v>
       </c>
-      <c r="I43" s="5">
-        <f>H43/(G43+0.5)</f>
+      <c r="I43" s="3">
+        <f t="shared" si="15"/>
         <v>5314.4516129032254</v>
       </c>
       <c r="J43" t="s">
@@ -7914,15 +7966,15 @@
       <c r="K43" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="5">
         <v>75000</v>
       </c>
       <c r="M43" t="str">
-        <f>IF(H43&lt;=L43,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Not Covered</v>
       </c>
       <c r="N43" t="str">
-        <f>CONCATENATE(B43,F43,D43,UPPER(LEFT(J43,3)),RIGHT(A43,3))</f>
+        <f t="shared" si="17"/>
         <v>HO99CIVWHI030</v>
       </c>
     </row>
@@ -7931,34 +7983,34 @@
         <v>16</v>
       </c>
       <c r="B44" t="str">
-        <f>LEFT(A44,2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(B44,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D44" t="str">
-        <f>MID(A44,5,3)</f>
+        <f t="shared" si="11"/>
         <v>MTG</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Mustang</v>
       </c>
       <c r="F44" t="str">
-        <f>MID(A44,3,2)</f>
+        <f t="shared" si="13"/>
         <v>06</v>
       </c>
       <c r="G44">
-        <f>IF(14-F44&lt;0,100-F44+14,14-F44)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H44" s="3">
         <v>44974.8</v>
       </c>
-      <c r="I44" s="5">
-        <f>H44/(G44+0.5)</f>
+      <c r="I44" s="3">
+        <f t="shared" si="15"/>
         <v>5291.1529411764714</v>
       </c>
       <c r="J44" t="s">
@@ -7967,15 +8019,15 @@
       <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="5">
         <v>50000</v>
       </c>
       <c r="M44" t="str">
-        <f>IF(H44&lt;=L44,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N44" t="str">
-        <f>CONCATENATE(B44,F44,D44,UPPER(LEFT(J44,3)),RIGHT(A44,3))</f>
+        <f t="shared" si="17"/>
         <v>FD06MTGWHI002</v>
       </c>
     </row>
@@ -7984,34 +8036,34 @@
         <v>63</v>
       </c>
       <c r="B45" t="str">
-        <f>LEFT(A45,2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(B45,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D45" t="str">
-        <f>MID(A45,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(D45,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F45" t="str">
-        <f>MID(A45,3,2)</f>
+        <f t="shared" si="13"/>
         <v>01</v>
       </c>
       <c r="G45">
-        <f>IF(14-F45&lt;0,100-F45+14,14-F45)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H45" s="3">
         <v>69891.899999999994</v>
       </c>
-      <c r="I45" s="5">
-        <f>H45/(G45+0.5)</f>
+      <c r="I45" s="3">
+        <f t="shared" si="15"/>
         <v>5177.177777777777</v>
       </c>
       <c r="J45" t="s">
@@ -8020,15 +8072,15 @@
       <c r="K45" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="5">
         <v>75000</v>
       </c>
       <c r="M45" t="str">
-        <f>IF(H45&lt;=L45,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N45" t="str">
-        <f>CONCATENATE(B45,F45,D45,UPPER(LEFT(J45,3)),RIGHT(A45,3))</f>
+        <f t="shared" si="17"/>
         <v>HO01CIVBLU031</v>
       </c>
     </row>
@@ -8037,34 +8089,34 @@
         <v>120</v>
       </c>
       <c r="B46" t="str">
-        <f>LEFT(A46,2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(B46,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D46" t="str">
-        <f>MID(A46,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CMR</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Camero</v>
       </c>
       <c r="F46" t="str">
-        <f>MID(A46,3,2)</f>
+        <f t="shared" si="13"/>
         <v>09</v>
       </c>
       <c r="G46">
-        <f>IF(14-F46&lt;0,100-F46+14,14-F46)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H46" s="3">
         <v>28464.799999999999</v>
       </c>
-      <c r="I46" s="5">
-        <f>H46/(G46+0.5)</f>
+      <c r="I46" s="3">
+        <f t="shared" si="15"/>
         <v>5175.4181818181814</v>
       </c>
       <c r="J46" t="s">
@@ -8073,15 +8125,15 @@
       <c r="K46" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="5">
         <v>100000</v>
       </c>
       <c r="M46" t="str">
-        <f>IF(H46&lt;=L46,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N46" t="str">
-        <f>CONCATENATE(B46,F46,D46,UPPER(LEFT(J46,3)),RIGHT(A46,3))</f>
+        <f t="shared" si="17"/>
         <v>GM09CMRWHI014</v>
       </c>
     </row>
@@ -8090,34 +8142,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="str">
-        <f>LEFT(A47,2)</f>
+        <f t="shared" si="9"/>
         <v>TY</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(B47,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Toyota</v>
       </c>
       <c r="D47" t="str">
-        <f>MID(A47,5,3)</f>
+        <f t="shared" si="11"/>
         <v>COR</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Corola</v>
       </c>
       <c r="F47" t="str">
-        <f>MID(A47,3,2)</f>
+        <f t="shared" si="13"/>
         <v>02</v>
       </c>
       <c r="G47">
-        <f>IF(14-F47&lt;0,100-F47+14,14-F47)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H47" s="3">
         <v>64467.4</v>
       </c>
-      <c r="I47" s="5">
-        <f>H47/(G47+0.5)</f>
+      <c r="I47" s="3">
+        <f t="shared" si="15"/>
         <v>5157.3919999999998</v>
       </c>
       <c r="J47" t="s">
@@ -8126,15 +8178,15 @@
       <c r="K47" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="5">
         <v>100000</v>
       </c>
       <c r="M47" t="str">
-        <f>IF(H47&lt;=L47,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N47" t="str">
-        <f>CONCATENATE(B47,F47,D47,UPPER(LEFT(J47,3)),RIGHT(A47,3))</f>
+        <f t="shared" si="17"/>
         <v>TY02CORRED025</v>
       </c>
     </row>
@@ -8143,34 +8195,34 @@
         <v>75</v>
       </c>
       <c r="B48" t="str">
-        <f>LEFT(A48,2)</f>
+        <f t="shared" si="9"/>
         <v>CR</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(B48,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Chrysler</v>
       </c>
       <c r="D48" t="str">
-        <f>MID(A48,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CAR</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Caravan</v>
       </c>
       <c r="F48" t="str">
-        <f>MID(A48,3,2)</f>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="G48">
-        <f>IF(14-F48&lt;0,100-F48+14,14-F48)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H48" s="3">
         <v>79420.600000000006</v>
       </c>
-      <c r="I48" s="5">
-        <f>H48/(G48+0.5)</f>
+      <c r="I48" s="3">
+        <f t="shared" si="15"/>
         <v>5123.9096774193549</v>
       </c>
       <c r="J48" t="s">
@@ -8179,15 +8231,15 @@
       <c r="K48" t="s">
         <v>44</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="5">
         <v>75000</v>
       </c>
       <c r="M48" t="str">
-        <f>IF(H48&lt;=L48,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Not Covered</v>
       </c>
       <c r="N48" t="str">
-        <f>CONCATENATE(B48,F48,D48,UPPER(LEFT(J48,3)),RIGHT(A48,3))</f>
+        <f t="shared" si="17"/>
         <v>CR99CARGRE045</v>
       </c>
     </row>
@@ -8196,34 +8248,34 @@
         <v>118</v>
       </c>
       <c r="B49" t="str">
-        <f>LEFT(A49,2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(B49,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D49" t="str">
-        <f>MID(A49,5,3)</f>
+        <f t="shared" si="11"/>
         <v>ODY</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Odyssey</v>
       </c>
       <c r="F49" t="str">
-        <f>MID(A49,3,2)</f>
+        <f t="shared" si="13"/>
         <v>01</v>
       </c>
       <c r="G49">
-        <f>IF(14-F49&lt;0,100-F49+14,14-F49)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H49" s="3">
         <v>68658.899999999994</v>
       </c>
-      <c r="I49" s="5">
-        <f>H49/(G49+0.5)</f>
+      <c r="I49" s="3">
+        <f t="shared" si="15"/>
         <v>5085.844444444444</v>
       </c>
       <c r="J49" t="s">
@@ -8232,15 +8284,15 @@
       <c r="K49" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="5">
         <v>100000</v>
       </c>
       <c r="M49" t="str">
-        <f>IF(H49&lt;=L49,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N49" t="str">
-        <f>CONCATENATE(B49,F49,D49,UPPER(LEFT(J49,3)),RIGHT(A49,3))</f>
+        <f t="shared" si="17"/>
         <v>HO01ODYBLA040</v>
       </c>
     </row>
@@ -8249,34 +8301,34 @@
         <v>45</v>
       </c>
       <c r="B50" t="str">
-        <f>LEFT(A50,2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(B50,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D50" t="str">
-        <f>MID(A50,5,3)</f>
+        <f t="shared" si="11"/>
         <v>SLV</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Silerado</v>
       </c>
       <c r="F50" t="str">
-        <f>MID(A50,3,2)</f>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="G50">
-        <f>IF(14-F50&lt;0,100-F50+14,14-F50)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="H50" s="3">
         <v>83162.7</v>
       </c>
-      <c r="I50" s="5">
-        <f>H50/(G50+0.5)</f>
+      <c r="I50" s="3">
+        <f t="shared" si="15"/>
         <v>5040.1636363636362</v>
       </c>
       <c r="J50" t="s">
@@ -8285,15 +8337,15 @@
       <c r="K50" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="5">
         <v>100000</v>
       </c>
       <c r="M50" t="str">
-        <f>IF(H50&lt;=L50,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N50" t="str">
-        <f>CONCATENATE(B50,F50,D50,UPPER(LEFT(J50,3)),RIGHT(A50,3))</f>
+        <f t="shared" si="17"/>
         <v>GM98SLVBLA018</v>
       </c>
     </row>
@@ -8302,34 +8354,34 @@
         <v>78</v>
       </c>
       <c r="B51" t="str">
-        <f>LEFT(A51,2)</f>
+        <f t="shared" si="9"/>
         <v>CR</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(B51,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Chrysler</v>
       </c>
       <c r="D51" t="str">
-        <f>MID(A51,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CAR</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(D51,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Caravan</v>
       </c>
       <c r="F51" t="str">
-        <f>MID(A51,3,2)</f>
+        <f t="shared" si="13"/>
         <v>04</v>
       </c>
       <c r="G51">
-        <f>IF(14-F51&lt;0,100-F51+14,14-F51)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H51" s="3">
         <v>52699.4</v>
       </c>
-      <c r="I51" s="5">
-        <f>H51/(G51+0.5)</f>
+      <c r="I51" s="3">
+        <f t="shared" si="15"/>
         <v>5018.9904761904763</v>
       </c>
       <c r="J51" t="s">
@@ -8338,15 +8390,15 @@
       <c r="K51" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="5">
         <v>75000</v>
       </c>
       <c r="M51" t="str">
-        <f>IF(H51&lt;=L51,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N51" t="str">
-        <f>CONCATENATE(B51,F51,D51,UPPER(LEFT(J51,3)),RIGHT(A51,3))</f>
+        <f t="shared" si="17"/>
         <v>CR04CARRED048</v>
       </c>
     </row>
@@ -8355,34 +8407,34 @@
         <v>64</v>
       </c>
       <c r="B52" t="str">
-        <f>LEFT(A52,2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(B52,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D52" t="str">
-        <f>MID(A52,5,3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(D52,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F52" t="str">
-        <f>MID(A52,3,2)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G52">
-        <f>IF(14-F52&lt;0,100-F52+14,14-F52)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>22573</v>
       </c>
-      <c r="I52" s="5">
-        <f>H52/(G52+0.5)</f>
+      <c r="I52" s="3">
+        <f t="shared" si="15"/>
         <v>5016.2222222222226</v>
       </c>
       <c r="J52" t="s">
@@ -8391,15 +8443,15 @@
       <c r="K52" t="s">
         <v>42</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="5">
         <v>75000</v>
       </c>
       <c r="M52" t="str">
-        <f>IF(H52&lt;=L52,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N52" t="str">
-        <f>CONCATENATE(B52,F52,D52,UPPER(LEFT(J52,3)),RIGHT(A52,3))</f>
+        <f t="shared" si="17"/>
         <v>HO10CIVBLU032</v>
       </c>
     </row>
@@ -8408,34 +8460,34 @@
         <v>13</v>
       </c>
       <c r="B53" t="str">
-        <f>LEFT(A53,2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(B53,B$57:C$62,2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D53" t="str">
-        <f>MID(A53,5,3)</f>
+        <f t="shared" si="11"/>
         <v>MTG</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(D53,D$57:E$67,2)</f>
+        <f t="shared" si="12"/>
         <v>Mustang</v>
       </c>
       <c r="F53" t="str">
-        <f>MID(A53,3,2)</f>
+        <f t="shared" si="13"/>
         <v>06</v>
       </c>
       <c r="G53">
-        <f>IF(14-F53&lt;0,100-F53+14,14-F53)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H53" s="3">
         <v>40326.800000000003</v>
       </c>
-      <c r="I53" s="5">
-        <f>H53/(G53+0.5)</f>
+      <c r="I53" s="3">
+        <f t="shared" si="15"/>
         <v>4744.3294117647065</v>
       </c>
       <c r="J53" t="s">
@@ -8444,20 +8496,20 @@
       <c r="K53" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="5">
         <v>50000</v>
       </c>
       <c r="M53" t="str">
-        <f>IF(H53&lt;=L53,"Y","Not Covered")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N53" t="str">
-        <f>CONCATENATE(B53,F53,D53,UPPER(LEFT(J53,3)),RIGHT(A53,3))</f>
+        <f t="shared" si="17"/>
         <v>FD06MTGBLA001</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8568,7 +8620,7 @@
       <c r="E65" t="s">
         <v>115</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
@@ -8607,7 +8659,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{EEBB04E3-926A-4A84-9107-26059BDDBF4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>